--- a/Data/Results/RQ2/intrusive-type.xlsx
+++ b/Data/Results/RQ2/intrusive-type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022ASE\data\intrusive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022ASE\data\Data\Results\RQ2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E368186-D28A-44FB-AED2-2D8806A8B6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B6CE6D-788F-4B26-B5DA-19F8A646A7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27420" yWindow="11220" windowWidth="22785" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>project</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -221,6 +221,22 @@
   </si>
   <si>
     <t>OTH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustrialX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustrialX-S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustrialX-R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVERAGE(close)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -294,30 +310,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,7 +725,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -773,7 +792,7 @@
         <v>159</v>
       </c>
       <c r="W2" s="2">
-        <f t="shared" ref="W2:W14" si="0">R2+S2</f>
+        <f t="shared" ref="W2:W16" si="0">R2+S2</f>
         <v>68</v>
       </c>
       <c r="X2" s="2">
@@ -782,7 +801,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
@@ -851,12 +870,12 @@
         <v>1</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" ref="X3:X14" si="1">T3+U3</f>
+        <f t="shared" ref="X3:X16" si="1">T3+U3</f>
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -905,19 +924,19 @@
       <c r="Q4" s="2">
         <v>114</v>
       </c>
-      <c r="R4" s="6">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
         <v>13</v>
       </c>
       <c r="W4" s="2">
@@ -930,7 +949,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -981,19 +1000,19 @@
       <c r="Q5" s="2">
         <v>54</v>
       </c>
-      <c r="R5" s="6">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
         <v>7</v>
       </c>
       <c r="W5" s="2">
@@ -1006,7 +1025,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1055,19 +1074,19 @@
       <c r="Q6" s="2">
         <v>47</v>
       </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <v>1</v>
-      </c>
-      <c r="T6" s="7">
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="6">
         <v>2</v>
       </c>
-      <c r="U6" s="7">
-        <v>0</v>
-      </c>
-      <c r="V6" s="7">
+      <c r="U6" s="6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="6">
         <v>5</v>
       </c>
       <c r="W6" s="2">
@@ -1080,7 +1099,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1156,7 +1175,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1230,7 +1249,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1304,7 +1323,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1378,7 +1397,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1429,19 +1448,19 @@
       <c r="Q11" s="2">
         <v>44</v>
       </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
-        <v>0</v>
-      </c>
-      <c r="V11" s="7">
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
         <v>6</v>
       </c>
       <c r="W11" s="2">
@@ -1454,7 +1473,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1503,19 +1522,19 @@
       <c r="Q12" s="2">
         <v>243</v>
       </c>
-      <c r="R12" s="6">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7">
-        <v>1</v>
-      </c>
-      <c r="T12" s="7">
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>1</v>
+      </c>
+      <c r="T12" s="6">
         <v>4</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="6">
         <v>7</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="6">
         <v>28</v>
       </c>
       <c r="W12" s="2">
@@ -1528,7 +1547,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1577,19 +1596,19 @@
       <c r="Q13" s="2">
         <v>98</v>
       </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
-      <c r="S13" s="7">
-        <v>0</v>
-      </c>
-      <c r="T13" s="7">
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
         <v>3</v>
       </c>
-      <c r="U13" s="7">
-        <v>0</v>
-      </c>
-      <c r="V13" s="7">
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
         <v>21</v>
       </c>
       <c r="W13" s="2">
@@ -1602,7 +1621,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1651,19 +1670,19 @@
       <c r="Q14" s="2">
         <v>74</v>
       </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7">
-        <v>0</v>
-      </c>
-      <c r="T14" s="6">
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
         <v>2</v>
       </c>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-      <c r="V14" s="6">
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
         <v>13</v>
       </c>
       <c r="W14" s="2">
@@ -1676,22 +1695,154 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
+      <c r="A15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2">
+        <v>552</v>
+      </c>
+      <c r="D15" s="2">
+        <v>207</v>
+      </c>
+      <c r="E15" s="2">
+        <v>334</v>
+      </c>
+      <c r="F15" s="2">
+        <v>174</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3753</v>
+      </c>
+      <c r="H15" s="2">
+        <v>36</v>
+      </c>
+      <c r="I15" s="2">
+        <v>41</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2694</v>
+      </c>
+      <c r="K15" s="2">
+        <v>70</v>
+      </c>
+      <c r="L15" s="2">
+        <v>4600</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1863</v>
+      </c>
+      <c r="N15" s="2">
+        <v>10210</v>
+      </c>
+      <c r="O15" s="2">
+        <v>4665</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2362</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>5549</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
+        <v>7</v>
+      </c>
+      <c r="U15" s="5">
+        <v>15</v>
+      </c>
+      <c r="V15" s="5">
+        <v>90</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2">
+        <v>549</v>
+      </c>
+      <c r="D16" s="2">
+        <v>176</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>184</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3178</v>
+      </c>
+      <c r="H16" s="2">
+        <v>38</v>
+      </c>
+      <c r="I16" s="2">
+        <v>39</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2420</v>
+      </c>
+      <c r="K16" s="2">
+        <v>57</v>
+      </c>
+      <c r="L16" s="2">
+        <v>3926</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1479</v>
+      </c>
+      <c r="N16" s="2">
+        <v>8711</v>
+      </c>
+      <c r="O16" s="2">
+        <v>3902</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1826</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3530</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
+        <v>17</v>
+      </c>
+      <c r="U16" s="5">
+        <v>23</v>
+      </c>
+      <c r="V16" s="5">
+        <v>118</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
@@ -1730,39 +1881,39 @@
         <v>25</v>
       </c>
       <c r="C20" s="2">
-        <f>C2+D2</f>
+        <f t="shared" ref="C20:K34" si="2">C2+D2</f>
         <v>485</v>
       </c>
       <c r="D20" s="2">
-        <f>E2</f>
+        <f t="shared" ref="D20:D34" si="3">E2</f>
         <v>62</v>
       </c>
       <c r="E20" s="2">
-        <f>G2</f>
+        <f t="shared" ref="E20:E34" si="4">G2</f>
         <v>1782</v>
       </c>
       <c r="F20" s="2">
-        <f>H2</f>
+        <f t="shared" ref="F20:F34" si="5">H2</f>
         <v>23</v>
       </c>
       <c r="G20" s="2">
-        <f>I2</f>
+        <f t="shared" ref="G20:G34" si="6">I2</f>
         <v>38</v>
       </c>
       <c r="H20" s="2">
-        <f>K2</f>
+        <f t="shared" ref="H20:H34" si="7">K2</f>
         <v>67</v>
       </c>
       <c r="I20" s="2">
-        <f>L2+M2</f>
+        <f t="shared" ref="I20:I34" si="8">L2+M2</f>
         <v>2948</v>
       </c>
       <c r="J20" s="2">
-        <f>N2+P2+Q2</f>
+        <f t="shared" ref="J20:J34" si="9">N2+P2+Q2</f>
         <v>9485</v>
       </c>
       <c r="K20" s="2">
-        <f>V2+W2+X2</f>
+        <f t="shared" ref="K20:K34" si="10">V2+W2+X2</f>
         <v>468</v>
       </c>
     </row>
@@ -1771,39 +1922,39 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <f>C3+D3</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="D21" s="2">
-        <f>E3</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E21" s="2">
-        <f>G3</f>
+        <f t="shared" si="4"/>
         <v>141</v>
       </c>
       <c r="F21" s="2">
-        <f>H3</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <f>I3</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <f>K3</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="I21" s="2">
-        <f>L3+M3</f>
+        <f t="shared" si="8"/>
         <v>999</v>
       </c>
       <c r="J21" s="2">
-        <f>N3+P3+Q3</f>
+        <f t="shared" si="9"/>
         <v>2564</v>
       </c>
       <c r="K21" s="2">
-        <f>V3+W3+X3</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -1812,39 +1963,39 @@
         <v>27</v>
       </c>
       <c r="C22" s="2">
-        <f>C4+D4</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D22" s="2">
-        <f>E4</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <f>G4</f>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="F22" s="2">
-        <f>H4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <f>I4</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <f>K4</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I22" s="2">
-        <f>L4+M4</f>
+        <f t="shared" si="8"/>
         <v>687</v>
       </c>
       <c r="J22" s="2">
-        <f>N4+P4+Q4</f>
+        <f t="shared" si="9"/>
         <v>983</v>
       </c>
       <c r="K22" s="2">
-        <f>V4+W4+X4</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
@@ -1853,39 +2004,39 @@
         <v>29</v>
       </c>
       <c r="C23" s="2">
-        <f>C5+D5</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <f>E5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <f>G5</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="F23" s="2">
-        <f>H5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <f>I5</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H23" s="2">
-        <f>K5</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I23" s="2">
-        <f>L5+M5</f>
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
       <c r="J23" s="2">
-        <f>N5+P5+Q5</f>
+        <f t="shared" si="9"/>
         <v>343</v>
       </c>
       <c r="K23" s="2">
-        <f>V5+W5+X5</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
@@ -1894,39 +2045,39 @@
         <v>30</v>
       </c>
       <c r="C24" s="2">
-        <f>C6+D6</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <f>E6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <f>G6</f>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="F24" s="2">
-        <f>H6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G24" s="2">
-        <f>I6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <f>K6</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="I24" s="2">
-        <f>L6+M6</f>
+        <f t="shared" si="8"/>
         <v>218</v>
       </c>
       <c r="J24" s="2">
-        <f>N6+P6+Q6</f>
+        <f t="shared" si="9"/>
         <v>340</v>
       </c>
       <c r="K24" s="2">
-        <f>V6+W6+X6</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
@@ -1935,39 +2086,39 @@
         <v>32</v>
       </c>
       <c r="C25" s="2">
-        <f>C7+D7</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="D25" s="2">
-        <f>E7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <f>G7</f>
+        <f t="shared" si="4"/>
         <v>181</v>
       </c>
       <c r="F25" s="2">
-        <f>H7</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <f>I7</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="H25" s="2">
-        <f>K7</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="I25" s="2">
-        <f>L7+M7</f>
+        <f t="shared" si="8"/>
         <v>488</v>
       </c>
       <c r="J25" s="2">
-        <f>N7+P7+Q7</f>
+        <f t="shared" si="9"/>
         <v>1084</v>
       </c>
       <c r="K25" s="2">
-        <f>V7+W7+X7</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
@@ -1976,39 +2127,39 @@
         <v>33</v>
       </c>
       <c r="C26" s="2">
-        <f>C8+D8</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="D26" s="2">
-        <f>E8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <f>G8</f>
+        <f t="shared" si="4"/>
         <v>197</v>
       </c>
       <c r="F26" s="2">
-        <f>H8</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G26" s="2">
-        <f>I8</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="H26" s="2">
-        <f>K8</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="I26" s="2">
-        <f>L8+M8</f>
+        <f t="shared" si="8"/>
         <v>653</v>
       </c>
       <c r="J26" s="2">
-        <f>N8+P8+Q8</f>
+        <f t="shared" si="9"/>
         <v>1022</v>
       </c>
       <c r="K26" s="2">
-        <f>V8+W8+X8</f>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
     </row>
@@ -2017,39 +2168,39 @@
         <v>34</v>
       </c>
       <c r="C27" s="2">
-        <f>C9+D9</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="D27" s="2">
-        <f>E9</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="E27" s="2">
-        <f>G9</f>
+        <f t="shared" si="4"/>
         <v>203</v>
       </c>
       <c r="F27" s="2">
-        <f>H9</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <f>I9</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="H27" s="2">
-        <f>K9</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="I27" s="2">
-        <f>L9+M9</f>
+        <f t="shared" si="8"/>
         <v>633</v>
       </c>
       <c r="J27" s="2">
-        <f>N9+P9+Q9</f>
+        <f t="shared" si="9"/>
         <v>1277</v>
       </c>
       <c r="K27" s="2">
-        <f>V9+W9+X9</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -2058,39 +2209,39 @@
         <v>35</v>
       </c>
       <c r="C28" s="2">
-        <f>C10+D10</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="D28" s="2">
-        <f>E10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <f>G10</f>
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
       <c r="F28" s="2">
-        <f>H10</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G28" s="2">
-        <f>I10</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="H28" s="2">
-        <f>K10</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="I28" s="2">
-        <f>L10+M10</f>
+        <f t="shared" si="8"/>
         <v>573</v>
       </c>
       <c r="J28" s="2">
-        <f>N10+P10+Q10</f>
+        <f t="shared" si="9"/>
         <v>1156</v>
       </c>
       <c r="K28" s="2">
-        <f>V10+W10+X10</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -2099,39 +2250,39 @@
         <v>37</v>
       </c>
       <c r="C29" s="2">
-        <f>C11+D11</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <f>E11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <f>G11</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="F29" s="2">
-        <f>H11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <f>I11</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="H29" s="2">
-        <f>K11</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="I29" s="2">
-        <f>L11+M11</f>
+        <f t="shared" si="8"/>
         <v>128</v>
       </c>
       <c r="J29" s="2">
-        <f>N11+P11+Q11</f>
+        <f t="shared" si="9"/>
         <v>278</v>
       </c>
       <c r="K29" s="2">
-        <f>V11+W11+X11</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -2140,39 +2291,39 @@
         <v>38</v>
       </c>
       <c r="C30" s="2">
-        <f>C12+D12</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="D30" s="2">
-        <f>E12</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E30" s="2">
-        <f>G12</f>
+        <f t="shared" si="4"/>
         <v>309</v>
       </c>
       <c r="F30" s="2">
-        <f>H12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <f>I12</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="H30" s="2">
-        <f>K12</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I30" s="2">
-        <f>L12+M12</f>
+        <f t="shared" si="8"/>
         <v>1105</v>
       </c>
       <c r="J30" s="2">
-        <f>N12+P12+Q12</f>
+        <f t="shared" si="9"/>
         <v>2418</v>
       </c>
       <c r="K30" s="2">
-        <f>V12+W12+X12</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
     </row>
@@ -2181,39 +2332,39 @@
         <v>39</v>
       </c>
       <c r="C31" s="2">
-        <f>C13+D13</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="D31" s="2">
-        <f>E13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <f>G13</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="F31" s="2">
-        <f>H13</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <f>I13</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="H31" s="2">
-        <f>K13</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I31" s="2">
-        <f>L13+M13</f>
+        <f t="shared" si="8"/>
         <v>843</v>
       </c>
       <c r="J31" s="2">
-        <f>N13+P13+Q13</f>
+        <f t="shared" si="9"/>
         <v>1033</v>
       </c>
       <c r="K31" s="2">
-        <f>V13+W13+X13</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
     </row>
@@ -2222,108 +2373,216 @@
         <v>40</v>
       </c>
       <c r="C32" s="2">
-        <f>C14+D14</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="D32" s="2">
-        <f>E14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E32" s="2">
-        <f>G14</f>
+        <f t="shared" si="4"/>
         <v>157</v>
       </c>
       <c r="F32" s="2">
-        <f>H14</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <f>I14</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="H32" s="2">
-        <f>K14</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="I32" s="2">
-        <f>L14+M14</f>
+        <f t="shared" si="8"/>
         <v>674</v>
       </c>
       <c r="J32" s="2">
-        <f>N14+P14+Q14</f>
+        <f t="shared" si="9"/>
         <v>828</v>
       </c>
       <c r="K32" s="2">
-        <f>V14+W14+X14</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="6"/>
+      <c r="B33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="2"/>
+        <v>759</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="3"/>
+        <v>334</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="4"/>
+        <v>3753</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="8"/>
+        <v>6463</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="9"/>
+        <v>18121</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="10"/>
+        <v>112</v>
+      </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="6"/>
+      <c r="B34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="2"/>
+        <v>725</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="4"/>
+        <v>3178</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="8"/>
+        <v>5405</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="9"/>
+        <v>14067</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="10"/>
+        <v>158</v>
+      </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <f>INT(AVERAGE(C20:C32))</f>
         <v>75</v>
       </c>
-      <c r="D35" s="8">
-        <f t="shared" ref="D35:K35" si="2">INT(AVERAGE(D20:D32))</f>
+      <c r="D35" s="7">
+        <f t="shared" ref="D35:K35" si="11">INT(AVERAGE(D20:D32))</f>
         <v>6</v>
       </c>
-      <c r="E35" s="8">
-        <f t="shared" si="2"/>
+      <c r="E35" s="7">
+        <f t="shared" si="11"/>
         <v>295</v>
       </c>
-      <c r="F35" s="8">
-        <f t="shared" si="2"/>
+      <c r="F35" s="7">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="G35" s="8">
-        <f t="shared" si="2"/>
+      <c r="G35" s="7">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="H35" s="8">
-        <f t="shared" si="2"/>
+      <c r="H35" s="7">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="I35" s="8">
-        <f t="shared" si="2"/>
+      <c r="I35" s="7">
+        <f t="shared" si="11"/>
         <v>771</v>
       </c>
-      <c r="J35" s="8">
-        <f t="shared" si="2"/>
+      <c r="J35" s="7">
+        <f t="shared" si="11"/>
         <v>1754</v>
       </c>
-      <c r="K35" s="8">
-        <f t="shared" si="2"/>
+      <c r="K35" s="7">
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="B36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="7">
+        <f>INT(AVERAGE(C33:C34))</f>
+        <v>742</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" ref="D36:K36" si="12">INT(AVERAGE(D33:D34))</f>
+        <v>177</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="12"/>
+        <v>3465</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="12"/>
+        <v>5934</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="12"/>
+        <v>16094</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>